--- a/NSHM/Assessment 2020/data/length/InterCatch/Compiled length data per country from accessions.xlsx
+++ b/NSHM/Assessment 2020/data/length/InterCatch/Compiled length data per country from accessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beukh001\OneDrive - WageningenUR\WOT\WGWIDE\NSHM\wg_WGWIDE\NSHM\Assessment 2020\data\commercial\Compiled length data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/esther_beukhof_wur_nl/Documents/WOT/WGWIDE/NSHM/wg_WGWIDE/NSHM/Assessment 2020/data/length/InterCatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9EBD503F-D466-44B4-873E-AC59283AFDA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="10_ncr:100000_{9EBD503F-D466-44B4-873E-AC59283AFDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{465D1E38-F961-469A-93AA-BBED99CF172C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8352" xr2:uid="{6D5E6740-4056-4A67-9A06-8473587019CE}"/>
+    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{6D5E6740-4056-4A67-9A06-8473587019CE}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
@@ -20,17 +20,29 @@
     <sheet name="NOR" sheetId="4" r:id="rId5"/>
     <sheet name="UK" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$F$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FRA!$A$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="22">
   <si>
     <t>CatchCategory</t>
   </si>
@@ -102,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +149,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE0714-EEB3-4B40-9240-F4B6ADC0DC72}">
-  <dimension ref="A1:F150"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +495,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -488,10 +504,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>0.41398064137014201</v>
+        <v>0.24548782871852101</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -499,7 +515,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -511,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>2.1712381266547798</v>
+        <v>9.5692074557076001</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -519,7 +535,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -531,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.82796128274028302</v>
+        <v>9.5692074557076001</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -539,7 +555,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -548,10 +564,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>9.1081898052351615</v>
+        <v>5.3719258373626397</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -559,7 +575,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -571,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>26.811610480573201</v>
+        <v>23.932154610826203</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -579,7 +595,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -588,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>45.375199661224897</v>
+        <v>14.9620367684758</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -599,7 +615,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -608,10 +624,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>47.184600736816904</v>
+        <v>5.3719258373626397</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -619,7 +635,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -628,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>52.780408834486501</v>
+        <v>37.806714032342498</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -639,7 +655,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -651,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>44.272278613266394</v>
+        <v>12.537875052403601</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -659,7 +675,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -668,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>47.931949009500904</v>
+        <v>4.6410491458861696</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -679,7 +695,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -688,10 +704,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>12.787891961779501</v>
+        <v>47.781405211326394</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -699,7 +715,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -711,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>3.2987142797615903</v>
+        <v>10.1087641127575</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -719,7 +735,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -728,10 +744,10 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>2.1901655893364902</v>
+        <v>69.582763842624203</v>
       </c>
       <c r="F14">
         <v>2019</v>
@@ -739,7 +755,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -751,27 +767,27 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>1.8233174688054601</v>
+        <v>60.5511537145535</v>
       </c>
       <c r="F15">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>0.96157787946381601</v>
+        <v>356</v>
       </c>
       <c r="F16">
         <v>2019</v>
@@ -779,7 +795,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -788,10 +804,10 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>0.41398064137014201</v>
+        <v>51.479944339531002</v>
       </c>
       <c r="F17">
         <v>2019</v>
@@ -799,7 +815,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -811,27 +827,27 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>0.41398064137014201</v>
+        <v>39.041576353731799</v>
       </c>
       <c r="F18">
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>0.40062642713239499</v>
+        <v>37.622686100000003</v>
       </c>
       <c r="F19">
         <v>2019</v>
@@ -839,7 +855,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -848,30 +864,30 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>0.40062642713239499</v>
+        <v>1.9517100142919901</v>
       </c>
       <c r="F20">
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>5.3719258373626397</v>
+        <v>912</v>
       </c>
       <c r="F21">
         <v>2019</v>
@@ -879,7 +895,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -888,21 +904,21 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>5.3719258373626397</v>
+        <v>114.986388060891</v>
       </c>
       <c r="F22">
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -911,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="E23">
-        <v>4.6410491458861696</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>2019</v>
@@ -919,7 +935,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -928,21 +944,21 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>1.9517100142919901</v>
+        <v>56.467289929022996</v>
       </c>
       <c r="F24">
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -951,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>6.5927591601781597</v>
+        <v>37.622686100000003</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -959,50 +975,50 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>6.5927591601781597</v>
+      </c>
+      <c r="F26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>49.199147444967402</v>
-      </c>
-      <c r="F26">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>21</v>
-      </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>40.403294678903002</v>
+        <v>776</v>
       </c>
       <c r="F27">
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1011,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>37.057217325201201</v>
+        <v>346</v>
       </c>
       <c r="F28">
         <v>2019</v>
@@ -1019,7 +1035,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1028,21 +1044,21 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>9.2767446247143504</v>
+        <v>113.504340410925</v>
       </c>
       <c r="F29">
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1051,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <v>6.9609133823548603</v>
+        <v>112.8680583</v>
       </c>
       <c r="F30">
         <v>2019</v>
@@ -1059,7 +1075,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1068,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>4.6410491458861696</v>
+        <v>84.299312782381506</v>
       </c>
       <c r="F31">
         <v>2019</v>
@@ -1079,7 +1095,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1091,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>6.0387533518518701</v>
+        <v>49.199147444967402</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -1099,7 +1115,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1108,110 +1124,110 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>0.73227545024419993</v>
+        <v>0.41398064137014201</v>
       </c>
       <c r="F33">
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>5.6164037271468299</v>
+        <v>11</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.16356365953374727</v>
       </c>
       <c r="F34">
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>1.4645509004883999</v>
+        <v>1577</v>
       </c>
       <c r="F35">
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>9.5692074557076001</v>
+        <v>551</v>
       </c>
       <c r="F36">
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>9.5692074557076001</v>
+        <v>231.26650914997424</v>
       </c>
       <c r="F37">
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>23.932154610826203</v>
+        <v>188.11343049999999</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -1219,7 +1235,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -1231,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>12.537875052403601</v>
+        <v>114.936571623082</v>
       </c>
       <c r="F39">
         <v>2019</v>
@@ -1239,7 +1255,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1248,10 +1264,10 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>10.1087641127575</v>
+        <v>40.403294678903002</v>
       </c>
       <c r="F40">
         <v>2019</v>
@@ -1259,7 +1275,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -1268,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>60.5511537145535</v>
+        <v>18.828946659618502</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -1279,119 +1295,119 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>2.1712381266547798</v>
+      </c>
+      <c r="F42">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>39.041576353731799</v>
-      </c>
-      <c r="F42">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>114.986388060891</v>
+        <v>11</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.32712731901636455</v>
       </c>
       <c r="F43">
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>113.504340410925</v>
+        <v>738</v>
       </c>
       <c r="F44">
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>114.936571623082</v>
+        <v>688</v>
       </c>
       <c r="F45">
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46">
-        <v>125.189369901568</v>
+        <v>231.26650914997424</v>
       </c>
       <c r="F46">
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E47">
-        <v>123.684535756244</v>
+        <v>150.49074440000001</v>
       </c>
       <c r="F47">
         <v>2019</v>
@@ -1399,7 +1415,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -1411,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>125.49651933263</v>
+        <v>125.189369901568</v>
       </c>
       <c r="F48">
         <v>2019</v>
@@ -1419,7 +1435,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -1428,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>97.054695381725992</v>
+        <v>49.5758144687086</v>
       </c>
       <c r="F49">
         <v>2019</v>
@@ -1439,7 +1455,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -1448,10 +1464,10 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>84.521542993916</v>
+        <v>37.057217325201201</v>
       </c>
       <c r="F50">
         <v>2019</v>
@@ -1459,7 +1475,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1471,67 +1487,67 @@
         <v>9</v>
       </c>
       <c r="E51">
-        <v>42.318263081465098</v>
+        <v>0.82796128274028302</v>
       </c>
       <c r="F51">
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>45.440905178585098</v>
+        <v>11</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.16356365953374727</v>
       </c>
       <c r="F52">
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <v>8.6623189235451505</v>
+        <v>1059</v>
       </c>
       <c r="F53">
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>2.88922838175941</v>
+        <v>808</v>
       </c>
       <c r="F54">
         <v>2019</v>
@@ -1539,59 +1555,59 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>123.684535756244</v>
+      </c>
+      <c r="F55">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>112.8680583</v>
+      </c>
+      <c r="F56">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55">
-        <v>14.9620367684758</v>
-      </c>
-      <c r="F55">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56">
-        <v>37.806714032342498</v>
-      </c>
-      <c r="F56">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>47.781405211326394</v>
+        <v>77.088836383324761</v>
       </c>
       <c r="F57">
         <v>2019</v>
@@ -1599,7 +1615,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -1611,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="E58">
-        <v>69.582763842624203</v>
+        <v>58.281249236237805</v>
       </c>
       <c r="F58">
         <v>2019</v>
@@ -1619,7 +1635,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
@@ -1628,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>51.479944339531002</v>
+        <v>9.2767446247143504</v>
       </c>
       <c r="F59">
         <v>2019</v>
@@ -1639,7 +1655,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -1648,90 +1664,90 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>56.467289929022996</v>
+        <v>9.1081898052351615</v>
       </c>
       <c r="F60">
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.81781829766873626</v>
+      </c>
+      <c r="F61">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>1437</v>
+      </c>
+      <c r="F62">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>20</v>
       </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61">
-        <v>84.299312782381506</v>
-      </c>
-      <c r="F61">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>21</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62">
-        <v>18.828946659618502</v>
-      </c>
-      <c r="F62">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>49.5758144687086</v>
+        <v>912</v>
       </c>
       <c r="F63">
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>58.281249236237805</v>
+        <v>539.62185468327323</v>
       </c>
       <c r="F64">
         <v>2019</v>
@@ -1748,30 +1764,30 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>23.816292249110496</v>
+        <v>125.49651933263</v>
       </c>
       <c r="F65">
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>20.043465391173299</v>
+        <v>112.8680583</v>
       </c>
       <c r="F66">
         <v>2019</v>
@@ -1779,7 +1795,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -1788,10 +1804,10 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>18.828946659618502</v>
+        <v>26.811610480573201</v>
       </c>
       <c r="F67">
         <v>2019</v>
@@ -1799,7 +1815,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1811,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <v>0.24548782871852101</v>
+        <v>23.816292249110496</v>
       </c>
       <c r="F68">
         <v>2019</v>
@@ -1819,119 +1835,119 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>0.89800000000000002</v>
+        <v>6.9609133823548603</v>
       </c>
       <c r="F69">
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70">
-        <v>1.2315428571428573</v>
+        <v>11</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.49069097855011173</v>
       </c>
       <c r="F70">
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E71">
-        <v>1.2347499999999998</v>
+        <v>1390</v>
       </c>
       <c r="F71">
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>1.4656642857142859</v>
+        <v>847.97720021657221</v>
       </c>
       <c r="F72">
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>0.59332142857142856</v>
+        <v>470</v>
       </c>
       <c r="F73">
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>231.26650914997424</v>
+        <v>112.8680583</v>
       </c>
       <c r="F74">
         <v>2019</v>
@@ -1939,19 +1955,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>231.26650914997424</v>
+        <v>97.054695381725992</v>
       </c>
       <c r="F75">
         <v>2019</v>
@@ -1959,19 +1975,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>77.088836383324761</v>
+        <v>45.375199661224897</v>
       </c>
       <c r="F76">
         <v>2019</v>
@@ -1979,19 +1995,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>539.62185468327323</v>
+        <v>20.043465391173299</v>
       </c>
       <c r="F77">
         <v>2019</v>
@@ -2002,64 +2018,64 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>847.97720021657221</v>
+        <v>4.6410491458861696</v>
       </c>
       <c r="F78">
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
-      <c r="E79">
-        <v>616.71069106659809</v>
+      <c r="E79" s="2">
+        <v>0.32712731901636455</v>
       </c>
       <c r="F79">
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>308.35534553329904</v>
+        <v>1113</v>
       </c>
       <c r="F80">
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -2071,27 +2087,27 @@
         <v>11</v>
       </c>
       <c r="E81">
-        <v>693.79952744992272</v>
+        <v>616.71069106659809</v>
       </c>
       <c r="F81">
         <v>2019</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="E82">
-        <v>77.088836383324761</v>
+        <v>177</v>
       </c>
       <c r="F82">
         <v>2019</v>
@@ -2099,19 +2115,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>539.62185468327323</v>
+        <v>84.521542993916</v>
       </c>
       <c r="F83">
         <v>2019</v>
@@ -2119,39 +2135,39 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>385.44418191662379</v>
+        <v>47.184600736816904</v>
       </c>
       <c r="F84">
         <v>2019</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85">
-        <v>77.088836383324761</v>
+        <v>37.622686100000003</v>
       </c>
       <c r="F85">
         <v>2019</v>
@@ -2159,19 +2175,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>37.622686100000003</v>
+        <v>18.828946659618502</v>
       </c>
       <c r="F86">
         <v>2019</v>
@@ -2179,10 +2195,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2191,38 +2207,38 @@
         <v>12</v>
       </c>
       <c r="E87">
-        <v>37.622686100000003</v>
+        <v>6.0387533518518701</v>
       </c>
       <c r="F87">
         <v>2019</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88">
-        <v>112.8680583</v>
+        <v>11</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.81781829766873637</v>
       </c>
       <c r="F88">
         <v>2019</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2231,27 +2247,27 @@
         <v>12</v>
       </c>
       <c r="E89">
-        <v>188.11343049999999</v>
+        <v>1176</v>
       </c>
       <c r="F89">
         <v>2019</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>150.49074440000001</v>
+        <v>308.35534553329904</v>
       </c>
       <c r="F90">
         <v>2019</v>
@@ -2259,39 +2275,39 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>112.8680583</v>
+        <v>52.780408834486501</v>
       </c>
       <c r="F91">
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>112.8680583</v>
+        <v>44</v>
       </c>
       <c r="F92">
         <v>2019</v>
@@ -2299,27 +2315,27 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>112.8680583</v>
+        <v>42.318263081465098</v>
       </c>
       <c r="F93">
         <v>2019</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
@@ -2342,7 +2358,7 @@
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2351,67 +2367,67 @@
         <v>12</v>
       </c>
       <c r="E95">
-        <v>37.622686100000003</v>
+        <v>0.73227545024419993</v>
       </c>
       <c r="F95">
         <v>2019</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96">
-        <v>0.86771904099999997</v>
+        <v>11</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.49069097855011173</v>
       </c>
       <c r="F96">
         <v>2019</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>3.4708761629999998</v>
+        <v>693.79952744992272</v>
       </c>
       <c r="F97">
         <v>2019</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E98">
-        <v>3.4708761629999998</v>
+        <v>459</v>
       </c>
       <c r="F98">
         <v>2019</v>
@@ -2419,19 +2435,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99">
-        <v>5.2063142439999996</v>
+        <v>45.440905178585098</v>
       </c>
       <c r="F99">
         <v>2019</v>
@@ -2439,99 +2455,99 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
       </c>
       <c r="E100">
-        <v>3.4708761629999998</v>
+        <v>44.272278613266394</v>
       </c>
       <c r="F100">
         <v>2019</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E101">
-        <v>2.6031571219999998</v>
+        <v>44</v>
       </c>
       <c r="F101">
         <v>2019</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102">
-        <v>0.86771904099999997</v>
+        <v>11</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.16356365953374727</v>
       </c>
       <c r="F102">
         <v>2019</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="F103">
         <v>2019</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>77.088836383324761</v>
       </c>
       <c r="F104">
         <v>2019</v>
@@ -2539,19 +2555,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>62</v>
+        <v>47.931949009500904</v>
       </c>
       <c r="F105">
         <v>2019</v>
@@ -2559,59 +2575,59 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
       </c>
       <c r="E106">
-        <v>192</v>
+        <v>5.6164037271468299</v>
       </c>
       <c r="F106">
         <v>2019</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>474</v>
+        <v>539.62185468327323</v>
       </c>
       <c r="F107">
         <v>2019</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108">
-        <v>677</v>
+        <v>171</v>
       </c>
       <c r="F108">
         <v>2019</v>
@@ -2619,19 +2635,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E109">
-        <v>880</v>
+        <v>12.787891961779501</v>
       </c>
       <c r="F109">
         <v>2019</v>
@@ -2639,19 +2655,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>570</v>
+        <v>8.6623189235451505</v>
       </c>
       <c r="F110">
         <v>2019</v>
@@ -2659,59 +2675,59 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
       </c>
       <c r="E111">
-        <v>133</v>
+        <v>1.4645509004883999</v>
       </c>
       <c r="F111">
         <v>2019</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>18</v>
+        <v>385.44418191662379</v>
       </c>
       <c r="F112">
         <v>2019</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F113">
         <v>2019</v>
@@ -2719,27 +2735,27 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
       </c>
       <c r="E114">
-        <v>7</v>
+        <v>3.2987142797615903</v>
       </c>
       <c r="F114">
         <v>2019</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
@@ -2748,58 +2764,58 @@
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F115">
         <v>2019</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>166</v>
+        <v>77.088836383324761</v>
       </c>
       <c r="F116">
         <v>2019</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>417</v>
+        <v>55</v>
       </c>
       <c r="F117">
         <v>2019</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
         <v>19</v>
@@ -2808,18 +2824,18 @@
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E118">
-        <v>636</v>
+        <v>10</v>
       </c>
       <c r="F118">
         <v>2019</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
@@ -2831,7 +2847,7 @@
         <v>9</v>
       </c>
       <c r="E119">
-        <v>820</v>
+        <v>7</v>
       </c>
       <c r="F119">
         <v>2019</v>
@@ -2839,30 +2855,30 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
       </c>
       <c r="E120">
-        <v>567</v>
+        <v>2.1901655893364902</v>
       </c>
       <c r="F120">
         <v>2019</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -2871,35 +2887,35 @@
         <v>9</v>
       </c>
       <c r="E121">
-        <v>139</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="F121">
         <v>2019</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
       </c>
       <c r="E122">
-        <v>20</v>
+        <v>0.86771904099999997</v>
       </c>
       <c r="F122">
         <v>2019</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s">
         <v>19</v>
@@ -2908,50 +2924,50 @@
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F123">
         <v>2019</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>47</v>
       </c>
       <c r="F124">
         <v>2019</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
         <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>3.4708761629999998</v>
       </c>
       <c r="F125">
         <v>2019</v>
@@ -2959,19 +2975,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126">
-        <v>356</v>
+        <v>2.88922838175941</v>
       </c>
       <c r="F126">
         <v>2019</v>
@@ -2979,119 +2995,119 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
+        <v>33</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127">
+        <v>1.8233174688054601</v>
+      </c>
+      <c r="F127">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>1.2315428571428573</v>
+      </c>
+      <c r="F128">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>34</v>
+      </c>
+      <c r="B129" t="s">
         <v>19</v>
       </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127">
-        <v>912</v>
-      </c>
-      <c r="F127">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>20</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128">
-        <v>776</v>
-      </c>
-      <c r="F128">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>21</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129">
-        <v>1577</v>
+        <v>192</v>
       </c>
       <c r="F129">
         <v>2019</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>738</v>
+        <v>166</v>
       </c>
       <c r="F130">
         <v>2019</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>808</v>
+        <v>3.4708761629999998</v>
       </c>
       <c r="F131">
         <v>2019</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E132">
-        <v>912</v>
+        <v>1.2347499999999998</v>
       </c>
       <c r="F132">
         <v>2019</v>
@@ -3099,99 +3115,99 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E133">
-        <v>470</v>
+        <v>0.96157787946381601</v>
       </c>
       <c r="F133">
         <v>2019</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>177</v>
+        <v>474</v>
       </c>
       <c r="F134">
         <v>2019</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="F135">
         <v>2019</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>44</v>
+        <v>5.2063142439999996</v>
       </c>
       <c r="F136">
         <v>2019</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>61</v>
+        <v>1.4656642857142859</v>
       </c>
       <c r="F137">
         <v>2019</v>
@@ -3199,99 +3215,99 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E138">
-        <v>346</v>
+        <v>0.41398064137014201</v>
       </c>
       <c r="F138">
         <v>2019</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139">
-        <v>551</v>
+        <v>677</v>
       </c>
       <c r="F139">
         <v>2019</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="F140">
         <v>2019</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E141">
-        <v>1059</v>
+        <v>3.4708761629999998</v>
       </c>
       <c r="F141">
         <v>2019</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>1437</v>
+        <v>0.59332142857142856</v>
       </c>
       <c r="F142">
         <v>2019</v>
@@ -3299,79 +3315,79 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>1390</v>
+        <v>0.41398064137014201</v>
       </c>
       <c r="F143">
         <v>2019</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
       </c>
       <c r="E144">
-        <v>1113</v>
+        <v>880</v>
       </c>
       <c r="F144">
         <v>2019</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>1176</v>
+        <v>820</v>
       </c>
       <c r="F145">
         <v>2019</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E146">
-        <v>459</v>
+        <v>2.6031571219999998</v>
       </c>
       <c r="F146">
         <v>2019</v>
@@ -3379,85 +3395,235 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E147">
-        <v>363</v>
+        <v>0.40062642713239499</v>
       </c>
       <c r="F147">
         <v>2019</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148">
-        <v>171</v>
+        <v>570</v>
       </c>
       <c r="F148">
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>26</v>
+        <v>567</v>
       </c>
       <c r="F149">
         <v>2019</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="F150">
         <v>2019</v>
       </c>
     </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>133</v>
+      </c>
+      <c r="F151">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>0.86771904099999997</v>
+      </c>
+      <c r="F152">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153">
+        <v>0.40062642713239499</v>
+      </c>
+      <c r="F153">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>40</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>20</v>
+      </c>
+      <c r="F154">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>40</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>41</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>41</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F157" xr:uid="{4FEFF455-751C-4BCB-A969-68710F89132B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="France"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F157">
+      <sortCondition ref="A1:A157"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3466,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421345F1-865C-4C71-B0B1-6B03AC3CB74A}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F68"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3500,16 +3666,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0.41398064137014201</v>
+        <v>0.24548782871852101</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -3524,13 +3690,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>2.1712381266547798</v>
+        <v>9.5692074557076001</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -3542,18 +3708,17 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>0.82796128274028302</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>5.3719258373626397</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3566,15 +3731,14 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>9.1081898052351615</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>9.5692074557076001</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3584,16 +3748,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>26.811610480573201</v>
+        <v>5.3719258373626397</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -3608,13 +3772,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>45.375199661224897</v>
+        <v>23.932154610826203</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -3626,16 +3790,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>47.184600736816904</v>
+        <v>14.9620367684758</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3647,16 +3811,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>52.780408834486501</v>
+        <v>4.6410491458861696</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3671,13 +3835,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>44.272278613266394</v>
+        <v>12.537875052403601</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -3689,16 +3853,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>47.931949009500904</v>
+        <v>37.806714032342498</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -3713,13 +3877,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>12.787891961779501</v>
+        <v>10.1087641127575</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -3731,16 +3895,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>3.2987142797615903</v>
+        <v>47.781405211326394</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3755,13 +3919,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>2.1901655893364902</v>
+        <v>60.5511537145535</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -3773,16 +3937,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>1.8233174688054601</v>
+        <v>69.582763842624203</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -3794,16 +3958,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>0.96157787946381601</v>
+        <v>1.9517100142919901</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -3818,13 +3982,13 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>0.41398064137014201</v>
+        <v>39.041576353731799</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -3836,16 +4000,16 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>0.41398064137014201</v>
+        <v>51.479944339531002</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -3857,16 +4021,16 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F19">
-        <v>0.40062642713239499</v>
+        <v>6.5927591601781597</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -3881,13 +4045,13 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>0.40062642713239499</v>
+        <v>114.986388060891</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -3899,17 +4063,18 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>5.3719258373626397</v>
-      </c>
+        <v>56.467289929022996</v>
+      </c>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3919,16 +4084,16 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>5.3719258373626397</v>
+        <v>0.41398064137014201</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -3946,10 +4111,10 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>4.6410491458861696</v>
+        <v>49.199147444967402</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -3961,16 +4126,16 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>1.9517100142919901</v>
+        <v>113.504340410925</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -3982,16 +4147,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>6.5927591601781597</v>
+        <v>84.299312782381506</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -4003,16 +4168,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26">
-        <v>49.199147444967402</v>
+        <v>2.1712381266547798</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -4045,16 +4210,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>37.057217325201201</v>
+        <v>114.936571623082</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -4066,16 +4231,16 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29">
-        <v>9.2767446247143504</v>
+        <v>18.828946659618502</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -4087,16 +4252,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F30">
-        <v>6.9609133823548603</v>
+        <v>0.82796128274028302</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -4114,10 +4279,10 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F31">
-        <v>4.6410491458861696</v>
+        <v>37.057217325201201</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -4129,16 +4294,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F32">
-        <v>6.0387533518518701</v>
+        <v>125.189369901568</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -4150,16 +4315,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>0.73227545024419993</v>
+        <v>49.5758144687086</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -4171,16 +4336,16 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>5.6164037271468299</v>
+        <v>9.1081898052351615</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -4198,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>1.4645509004883999</v>
+        <v>9.2767446247143504</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -4219,10 +4384,10 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F36">
-        <v>9.5692074557076001</v>
+        <v>123.684535756244</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -4234,17 +4399,18 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>9.5692074557076001</v>
-      </c>
+        <v>58.281249236237805</v>
+      </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -4257,13 +4423,13 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>23.932154610826203</v>
+        <v>26.811610480573201</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -4275,16 +4441,16 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>12.537875052403601</v>
+        <v>6.9609133823548603</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -4302,10 +4468,10 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F40">
-        <v>10.1087641127575</v>
+        <v>125.49651933263</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -4317,16 +4483,16 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F41">
-        <v>60.5511537145535</v>
+        <v>23.816292249110496</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -4341,13 +4507,13 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F42">
-        <v>39.041576353731799</v>
+        <v>45.375199661224897</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -4359,16 +4525,16 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
       <c r="E43">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F43">
-        <v>114.986388060891</v>
+        <v>4.6410491458861696</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -4386,10 +4552,10 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F44">
-        <v>113.504340410925</v>
+        <v>97.054695381725992</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -4401,16 +4567,16 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
       <c r="E45">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F45">
-        <v>114.936571623082</v>
+        <v>20.043465391173299</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -4425,13 +4591,13 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F46">
-        <v>125.189369901568</v>
+        <v>47.184600736816904</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -4443,16 +4609,16 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
       <c r="E47">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F47">
-        <v>123.684535756244</v>
+        <v>6.0387533518518701</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -4470,10 +4636,10 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F48">
-        <v>125.49651933263</v>
+        <v>84.521542993916</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -4485,16 +4651,16 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F49">
-        <v>97.054695381725992</v>
+        <v>18.828946659618502</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -4509,13 +4675,13 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F50">
-        <v>84.521542993916</v>
+        <v>52.780408834486501</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -4527,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -4536,7 +4702,7 @@
         <v>27</v>
       </c>
       <c r="F51">
-        <v>42.318263081465098</v>
+        <v>0.73227545024419993</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -4554,10 +4720,10 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52">
-        <v>45.440905178585098</v>
+        <v>42.318263081465098</v>
       </c>
       <c r="J52" s="1"/>
     </row>
@@ -4572,13 +4738,13 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F53">
-        <v>8.6623189235451505</v>
+        <v>44.272278613266394</v>
       </c>
       <c r="J53" s="1"/>
     </row>
@@ -4596,10 +4762,10 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F54">
-        <v>2.88922838175941</v>
+        <v>45.440905178585098</v>
       </c>
       <c r="J54" s="1"/>
     </row>
@@ -4611,16 +4777,16 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F55">
-        <v>14.9620367684758</v>
+        <v>47.931949009500904</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -4632,16 +4798,16 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F56">
-        <v>37.806714032342498</v>
+        <v>5.6164037271468299</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -4653,16 +4819,16 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F57">
-        <v>47.781405211326394</v>
+        <v>12.787891961779501</v>
       </c>
       <c r="J57" s="1"/>
     </row>
@@ -4674,16 +4840,16 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
       </c>
       <c r="E58">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>69.582763842624203</v>
+        <v>1.4645509004883999</v>
       </c>
       <c r="J58" s="1"/>
     </row>
@@ -4695,16 +4861,16 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>51.479944339531002</v>
+        <v>8.6623189235451505</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -4716,16 +4882,16 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F60">
-        <v>56.467289929022996</v>
+        <v>3.2987142797615903</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -4737,16 +4903,16 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F61">
-        <v>84.299312782381506</v>
+        <v>2.1901655893364902</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -4758,16 +4924,16 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F62">
-        <v>18.828946659618502</v>
+        <v>1.8233174688054601</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -4779,16 +4945,16 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F63">
-        <v>49.5758144687086</v>
+        <v>2.88922838175941</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -4800,16 +4966,16 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F64">
-        <v>58.281249236237805</v>
+        <v>0.96157787946381601</v>
       </c>
       <c r="J64" s="1"/>
     </row>
@@ -4821,16 +4987,16 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F65">
-        <v>23.816292249110496</v>
+        <v>0.41398064137014201</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -4842,16 +5008,16 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F66">
-        <v>20.043465391173299</v>
+        <v>0.41398064137014201</v>
       </c>
       <c r="J66" s="1"/>
     </row>
@@ -4863,16 +5029,16 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F67">
-        <v>18.828946659618502</v>
+        <v>0.40062642713239499</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -4884,20 +5050,25 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F68">
-        <v>0.24548782871852101</v>
+        <v>0.40062642713239499</v>
       </c>
       <c r="J68" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{99BF2AAB-EC71-44AB-A938-EB301ABD674A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J68">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4907,7 +5078,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6109,13 +6280,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E6E5D3-70D3-46D6-85C6-6E596AC15AC6}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6151,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>0.16356365953374727</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6171,10 +6345,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0.32712731901636455</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6182,7 +6356,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6191,10 +6365,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>356</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.16356365953374727</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6202,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -6211,10 +6385,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>912</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.81781829766873626</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6222,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -6231,10 +6405,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>776</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.49069097855011173</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6242,7 +6416,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -6251,10 +6425,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>1577</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.32712731901636455</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6262,7 +6436,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -6271,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>738</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.81781829766873637</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6282,7 +6456,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -6291,10 +6465,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>808</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.49069097855011173</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6302,7 +6476,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -6311,10 +6485,10 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>912</v>
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.16356365953374727</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6331,10 +6505,10 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>470</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6351,10 +6525,10 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>177</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6371,10 +6545,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>44</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6391,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>44</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6402,19 +6576,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>61</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6422,19 +6596,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>346</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6442,19 +6616,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>551</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6462,19 +6636,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>688</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6482,19 +6656,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>1059</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6502,19 +6676,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>1437</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6522,19 +6696,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>1390</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6551,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>1113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6571,10 +6745,10 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>1176</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6591,10 +6765,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>459</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6611,10 +6785,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>363</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6631,10 +6805,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>171</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6651,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6671,9 +6845,149 @@
         <v>1</v>
       </c>
       <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>32</v>
       </c>
-      <c r="F28">
+      <c r="F35">
         <v>55</v>
       </c>
     </row>
@@ -6683,6 +6997,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100959693DDEBB9234399FE2DF0744C4585" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0378c5d631e9a900a2e387157c0c4b66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d2b4e786-30d2-4c2c-8967-087d16987aff" xmlns:ns4="8ea29b0d-3347-4137-a513-a85c127b091c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c01a7a8940d80755e6915f64b367bc8" ns3:_="" ns4:_="">
     <xsd:import namespace="d2b4e786-30d2-4c2c-8967-087d16987aff"/>
@@ -6905,22 +7234,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CBFD409-0B79-448A-B696-B79970B16A8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8ea29b0d-3347-4137-a513-a85c127b091c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d2b4e786-30d2-4c2c-8967-087d16987aff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6458CA9-4085-40C1-8990-089CD9577D60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82474865-F1AF-4198-BD87-21B8CD2E4702}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6937,29 +7276,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6458CA9-4085-40C1-8990-089CD9577D60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CBFD409-0B79-448A-B696-B79970B16A8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d2b4e786-30d2-4c2c-8967-087d16987aff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8ea29b0d-3347-4137-a513-a85c127b091c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>